--- a/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -163,7 +163,7 @@
 </t>
   </si>
   <si>
-    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown MedicationAdministration Status Codes (Required)</t>
+    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown MedicationAdministration Status Codes (Required)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.statusReason</t>
@@ -173,23 +173,23 @@
 </t>
   </si>
   <si>
-    <t>Reason administration not performed SNOMED CT Reason Medication Not Given Codes (Example)</t>
+    <t>Reason administration not performed SNOMED CT Reason Medication Not Given Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.category</t>
   </si>
   <si>
-    <t>Type of medication administration MedicationAdministration Location Codes (Example)</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordAdministration.product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Medication)
-</t>
-  </si>
-  <si>
-    <t>What was administered SNOMED CT Medication Codes (Example)</t>
+    <t>Type of medication administration MedicationAdministration Location Codes (Example)</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordAdministration.product[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication)</t>
+  </si>
+  <si>
+    <t>What was administered SNOMED CT Medication Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.subject</t>
@@ -245,7 +245,7 @@
     <t>BeModelMedicationRecordAdministration.performer.function</t>
   </si>
   <si>
-    <t>Type of performance MedicationAdministration Performer Function Codes (Example)</t>
+    <t>Type of performance MedicationAdministration Performer Function Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.performer.actor</t>
@@ -258,14 +258,14 @@
     <t>Who performed the medication administration</t>
   </si>
   <si>
-    <t>BeModelMedicationRecordAdministration.reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
-</t>
-  </si>
-  <si>
-    <t>Concept, condition or observation that supports why the medication was administered Reason Medication Given Codes (Example)</t>
+    <t>BeModelMedicationRecordAdministration.reason[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Condition|Observation|DiagnosticReport)</t>
+  </si>
+  <si>
+    <t>Concept, condition or observation that supports why the medication was administered Reason Medication Given Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.prescription</t>
@@ -317,19 +317,19 @@
     <t>BeModelMedicationRecordAdministration.dosage.site</t>
   </si>
   <si>
-    <t>Body site administered to SNOMED CT Anatomical Structure for Administration Site Codes (Example)</t>
+    <t>Body site administered to SNOMED CT Anatomical Structure for Administration Site Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage.route</t>
   </si>
   <si>
-    <t>Path of substance into body SNOMED CT Route Codes (Example)</t>
+    <t>Path of substance into body SNOMED CT Route Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage.method</t>
   </si>
   <si>
-    <t>How drug was administered SNOMED CT Administration Method Codes (Example)</t>
+    <t>How drug was administered SNOMED CT Administration Method Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage.dose</t>

--- a/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="111">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
 </t>
   </si>
   <si>
-    <t>External identifier</t>
+    <t>The business identifier(s) for the medication Administration</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.status</t>
@@ -163,7 +163,7 @@
 </t>
   </si>
   <si>
-    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown MedicationAdministration Status Codes (Required)</t>
+    <t>Status of the medication administration</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.statusReason</t>
@@ -173,13 +173,13 @@
 </t>
   </si>
   <si>
-    <t>Reason administration not performed SNOMED CT Reason Medication Not Given Codes (Example)</t>
+    <t xml:space="preserve">Reason supporting the status of the medication administration </t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.category</t>
   </si>
   <si>
-    <t>Type of medication administration MedicationAdministration Location Codes (Example)</t>
+    <t>Type of medication administration</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.product[x]</t>
@@ -189,7 +189,7 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>What was administered SNOMED CT Medication Codes (Example)</t>
+    <t>What was administered</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.subject</t>
@@ -245,7 +245,7 @@
     <t>BeModelMedicationRecordAdministration.performer.function</t>
   </si>
   <si>
-    <t>Type of performance MedicationAdministration Performer Function Codes (Example)</t>
+    <t>Function of the actor regarding the medication administration</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.performer.actor</t>
@@ -255,7 +255,7 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration</t>
+    <t>Who performed a function related to the medication administration</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.reason[x]</t>
@@ -265,7 +265,7 @@
 Reference(Condition|Observation|DiagnosticReport)</t>
   </si>
   <si>
-    <t>Concept, condition or observation that supports why the medication was administered Reason Medication Given Codes (Example)</t>
+    <t>Concept, condition or observation that supports why the medication was administered</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.prescription</t>
@@ -295,13 +295,13 @@
 </t>
   </si>
   <si>
-    <t>Information about the administration</t>
+    <t>Further information about the administration</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage</t>
   </si>
   <si>
-    <t>Details of how medication was taken + Rule: If dosage attribute is present then SHALL have at least one of dosage.text or dosage.dose or dosage.rate[x]</t>
+    <t>Details of how medication was taken</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage.text</t>
@@ -317,19 +317,19 @@
     <t>BeModelMedicationRecordAdministration.dosage.site</t>
   </si>
   <si>
-    <t>Body site administered to SNOMED CT Anatomical Structure for Administration Site Codes (Example)</t>
+    <t>Body site administered to</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage.route</t>
   </si>
   <si>
-    <t>Path of substance into body SNOMED CT Route Codes (Example)</t>
+    <t>Route through which the product was administered</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage.method</t>
   </si>
   <si>
-    <t>How drug was administered SNOMED CT Administration Method Codes (Example)</t>
+    <t>How drug was administered</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage.dose</t>
@@ -359,7 +359,13 @@
 </t>
   </si>
   <si>
+    <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordAdministration.location</t>
+  </si>
+  <si>
+    <t>Where the administration was performed</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.1640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.15234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3090,8 +3096,12 @@
       <c r="J26" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="K26" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3161,7 +3171,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3186,8 +3196,12 @@
       <c r="J27" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="K27" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3237,7 +3251,7 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>38</v>

--- a/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -173,7 +173,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reason supporting the status of the medication administration </t>
+    <t>Reason supporting the status of the medication administration</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.category</t>
@@ -229,7 +229,7 @@
 </t>
   </si>
   <si>
-    <t>When the MedicationAdministration was first captured in the subject's record</t>
+    <t>When the Medication administration was first captured in the subject's record</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.performer</t>
@@ -265,7 +265,7 @@
 Reference(Condition|Observation|DiagnosticReport)</t>
   </si>
   <si>
-    <t>Concept, condition or observation that supports why the medication was administered</t>
+    <t>Information that supports why the medication was administered</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.prescription</t>
@@ -275,7 +275,7 @@
 </t>
   </si>
   <si>
-    <t>Request administration performed against</t>
+    <t>Prescription for which the administration was performed against</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.device</t>
@@ -301,7 +301,7 @@
     <t>BeModelMedicationRecordAdministration.dosage</t>
   </si>
   <si>
-    <t>Details of how medication was taken</t>
+    <t>Details of how medication was administered</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage.text</t>
@@ -311,7 +311,7 @@
 </t>
   </si>
   <si>
-    <t>Free text dosage instructions e.g. SIG</t>
+    <t>Free text dosage instructions</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage.site</t>
@@ -329,7 +329,7 @@
     <t>BeModelMedicationRecordAdministration.dosage.method</t>
   </si>
   <si>
-    <t>How drug was administered</t>
+    <t>How the product was administered</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage.dose</t>
@@ -339,7 +339,7 @@
 </t>
   </si>
   <si>
-    <t>Amount of medication per dose</t>
+    <t>Amount of product per dose</t>
   </si>
   <si>
     <t>BeModelMedicationRecordAdministration.dosage.dose.rate[x]</t>

--- a/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$28</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="113">
   <si>
     <t>Path</t>
   </si>
@@ -352,7 +352,7 @@
     <t>Dose quantity per unit of time</t>
   </si>
   <si>
-    <t>BeModelMedicationRecordAdministration.treatment</t>
+    <t>BeModelMedicationRecordAdministration.treatmentPlan</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>Where the administration was performed</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordAdministration.basedOn</t>
+  </si>
+  <si>
+    <t>link to the 'parent' treatmentLine - i.e the line that covers all of the same drug for a certain purpose</t>
   </si>
 </sst>
 </file>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -533,7 +539,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3269,8 +3275,108 @@
         <v>37</v>
       </c>
     </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ27">
+  <autoFilter ref="A1:AJ28">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3280,7 +3386,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="114">
   <si>
     <t>Path</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Medication Record Administration logical model</t>
+  </si>
+  <si>
+    <t>A model for representing and reporting an administration of a product</t>
   </si>
   <si>
     <t>Base</t>
@@ -707,7 +710,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -757,7 +762,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -777,7 +782,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -800,13 +805,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -857,7 +862,7 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
@@ -877,7 +882,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -885,10 +890,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -900,13 +905,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -957,13 +962,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -977,7 +982,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1000,13 +1005,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1057,7 +1062,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -1077,7 +1082,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1100,13 +1105,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1157,7 +1162,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1177,7 +1182,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1185,10 +1190,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1200,13 +1205,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1257,13 +1262,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1277,7 +1282,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1285,10 +1290,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1300,13 +1305,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1357,13 +1362,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1377,7 +1382,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1388,7 +1393,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1400,13 +1405,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1457,13 +1462,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1477,7 +1482,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1485,10 +1490,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1500,13 +1505,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1557,13 +1562,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1577,7 +1582,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1588,7 +1593,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1600,13 +1605,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1657,13 +1662,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1677,7 +1682,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1700,13 +1705,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1757,7 +1762,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1777,7 +1782,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1788,7 +1793,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1800,13 +1805,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1857,13 +1862,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1877,7 +1882,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1885,10 +1890,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -1900,13 +1905,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1957,13 +1962,13 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>37</v>
@@ -1977,7 +1982,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2000,13 +2005,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2057,7 +2062,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2077,7 +2082,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2088,7 +2093,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2100,13 +2105,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2157,13 +2162,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2177,7 +2182,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2200,13 +2205,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2257,7 +2262,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2277,7 +2282,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2300,13 +2305,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2357,7 +2362,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2377,7 +2382,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2388,7 +2393,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2400,13 +2405,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2457,13 +2462,13 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
@@ -2477,7 +2482,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2488,7 +2493,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2500,13 +2505,13 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2557,13 +2562,13 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
@@ -2577,7 +2582,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2588,7 +2593,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2600,13 +2605,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2657,13 +2662,13 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>37</v>
@@ -2677,7 +2682,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2688,7 +2693,7 @@
         <v>38</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>37</v>
@@ -2700,13 +2705,13 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2757,13 +2762,13 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>37</v>
@@ -2777,7 +2782,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2788,7 +2793,7 @@
         <v>38</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>37</v>
@@ -2800,13 +2805,13 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2857,13 +2862,13 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>37</v>
@@ -2877,7 +2882,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2888,7 +2893,7 @@
         <v>38</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>37</v>
@@ -2900,13 +2905,13 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2957,13 +2962,13 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>37</v>
@@ -2977,7 +2982,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -2988,7 +2993,7 @@
         <v>38</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>37</v>
@@ -3000,13 +3005,13 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3057,13 +3062,13 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>37</v>
@@ -3077,7 +3082,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3088,7 +3093,7 @@
         <v>38</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>37</v>
@@ -3100,13 +3105,13 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3157,13 +3162,13 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>37</v>
@@ -3177,7 +3182,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3188,7 +3193,7 @@
         <v>38</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>37</v>
@@ -3200,13 +3205,13 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3257,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>37</v>
@@ -3277,7 +3282,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3288,7 +3293,7 @@
         <v>38</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>37</v>
@@ -3300,13 +3305,13 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3357,13 +3362,13 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>37</v>

--- a/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -137,7 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Administration logical model</t>
+    <t>[Logical Model] - Administration</t>
   </si>
   <si>
     <t>A model for representing and reporting an administration of a product</t>

--- a/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
+++ b/branches/master/StructureDefinition-BeModelMedicationRecordAdministration.xlsx
@@ -140,7 +140,7 @@
     <t>[Logical Model] - Administration</t>
   </si>
   <si>
-    <t>A model for representing and reporting an administration of a product</t>
+    <t>A model for representing and reporting an administration of a product.</t>
   </si>
   <si>
     <t>Base</t>
